--- a/data/combined data/combined data - 1 cleaning/tree_org1_thru_org5_Meta.xlsx
+++ b/data/combined data/combined data - 1 cleaning/tree_org1_thru_org5_Meta.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\PC (2)\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A740A65-42B6-47DF-9414-A79DDB400B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EE7FDE-2983-4642-AF0B-6AD7CD4BB7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="노동당" sheetId="2" r:id="rId1"/>
@@ -1560,8 +1560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB1157F-18CA-634C-BECD-1FC6092C8F77}">
   <dimension ref="A1:I163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3276,7 +3277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A4D9F1-672B-B04F-A594-9F1A97A5FDA0}">
   <dimension ref="A1:I279"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
